--- a/文档/项目开发计划/SRA2021-G11-WBS输入输出v0.0.1.xlsx
+++ b/文档/项目开发计划/SRA2021-G11-WBS输入输出v0.0.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="172">
   <si>
     <t>名称</t>
   </si>
@@ -541,8 +541,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -563,6 +563,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -570,14 +577,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,8 +590,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,14 +608,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,6 +638,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -628,16 +653,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,16 +677,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,31 +693,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,7 +715,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,85 +871,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,85 +895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,53 +926,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,151 +962,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1504,13 +1504,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="22.3636363636364" customWidth="1"/>
     <col min="2" max="2" width="16.2727272727273" customWidth="1"/>
@@ -1837,12 +1837,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>64</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1861,12 +1864,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>67</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -1890,12 +1896,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>71</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1930,12 +1939,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>78</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1973,20 +1985,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>85</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="E52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>86</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2000,12 +2018,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>89</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -2098,12 +2119,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>102</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -2204,12 +2228,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>115</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2223,12 +2250,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>118</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:1">
@@ -2308,12 +2338,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>122</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
+      </c>
+      <c r="E95" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -2385,12 +2418,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>124</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
+      </c>
+      <c r="E105" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:4">

--- a/文档/项目开发计划/SRA2021-G11-WBS输入输出v0.0.1.xlsx
+++ b/文档/项目开发计划/SRA2021-G11-WBS输入输出v0.0.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="172">
   <si>
     <t>名称</t>
   </si>
@@ -540,9 +540,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -563,13 +563,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -584,31 +577,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,6 +646,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -678,7 +678,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,7 +700,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,7 +715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,7 +727,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,42 +811,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -787,7 +823,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,91 +895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,11 +924,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,30 +987,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1012,10 +1012,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1024,133 +1024,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1504,13 +1504,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.3636363636364" customWidth="1"/>
     <col min="2" max="2" width="16.2727272727273" customWidth="1"/>
@@ -1837,14 +1837,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>64</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" t="s">
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1864,14 +1867,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>67</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="s">
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1896,14 +1902,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>71</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
-      <c r="E42" t="s">
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1939,14 +1948,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>78</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="E47" t="s">
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1985,25 +1997,31 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>85</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
-      <c r="E52" t="s">
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>86</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
-      <c r="E53" t="s">
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2018,14 +2036,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>89</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
-      <c r="E55" t="s">
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2119,14 +2140,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>102</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="E68" t="s">
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2228,14 +2252,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>115</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
-      <c r="E82" t="s">
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2250,14 +2277,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>118</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
-      <c r="E84" t="s">
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2338,14 +2368,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>122</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
-      <c r="E95" t="s">
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2418,14 +2451,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>124</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
-      <c r="E105" t="s">
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
         <v>56</v>
       </c>
     </row>

--- a/文档/项目开发计划/SRA2021-G11-WBS输入输出v0.0.1.xlsx
+++ b/文档/项目开发计划/SRA2021-G11-WBS输入输出v0.0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21590" windowHeight="11260"/>
+    <workbookView windowWidth="22103" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="任务_表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="189">
   <si>
     <t>名称</t>
   </si>
@@ -43,6 +43,9 @@
     <t>确定小组成员</t>
   </si>
   <si>
+    <t>小组成员</t>
+  </si>
+  <si>
     <t>G11小组成立</t>
   </si>
   <si>
@@ -94,24 +97,39 @@
     <t>沈瑞杰</t>
   </si>
   <si>
+    <t>收集数据</t>
+  </si>
+  <si>
     <t>技术可行性分析</t>
   </si>
   <si>
+    <t>收集主要技术</t>
+  </si>
+  <si>
     <t>操作可行性分析</t>
   </si>
   <si>
     <t>伊君琛</t>
   </si>
   <si>
+    <t>收集用户操作</t>
+  </si>
+  <si>
     <t>法律可行性分析</t>
   </si>
   <si>
+    <t>查询相关法律</t>
+  </si>
+  <si>
     <t>整合可行性分析报告</t>
   </si>
   <si>
     <t>沈瑞杰,伊君琛</t>
   </si>
   <si>
+    <t>以上可行性分析</t>
+  </si>
+  <si>
     <t>《可行性分析报告》</t>
   </si>
   <si>
@@ -124,6 +142,9 @@
     <t>黄文涛</t>
   </si>
   <si>
+    <t>5位组员</t>
+  </si>
+  <si>
     <t>obs图更新</t>
   </si>
   <si>
@@ -133,6 +154,9 @@
     <t>梅一枝</t>
   </si>
   <si>
+    <t>项目主要步骤</t>
+  </si>
+  <si>
     <t>甘特图</t>
   </si>
   <si>
@@ -142,6 +166,9 @@
     <t>黄文涛,张景雄</t>
   </si>
   <si>
+    <t>文档模板</t>
+  </si>
+  <si>
     <t>《项目开发计划》、《项目章程》</t>
   </si>
   <si>
@@ -166,9 +193,15 @@
     <t>整合项目开发计划</t>
   </si>
   <si>
+    <t>以上文档</t>
+  </si>
+  <si>
     <t>项目计划阶段整合</t>
   </si>
   <si>
+    <t>更新版本文档</t>
+  </si>
+  <si>
     <t>文档、甘特图修订</t>
   </si>
   <si>
@@ -202,22 +235,40 @@
     <t>收集背景资料</t>
   </si>
   <si>
+    <t>资料背景</t>
+  </si>
+  <si>
     <t>定义项目前景和范围</t>
   </si>
   <si>
+    <t>前景与范围文档</t>
+  </si>
+  <si>
     <t>选择信息的来源</t>
   </si>
   <si>
     <t>梅一枝,沈瑞杰</t>
   </si>
   <si>
+    <t>用户代表文档</t>
+  </si>
+  <si>
     <t>G11小组第三次会议</t>
   </si>
   <si>
     <t>选择获取方法，执行获取</t>
   </si>
   <si>
+    <t>谈话</t>
+  </si>
+  <si>
+    <t>《访谈记录》</t>
+  </si>
+  <si>
     <t>记录获取结果</t>
+  </si>
+  <si>
+    <t>《需求记录文档》</t>
   </si>
   <si>
     <t>G11小组第四次会议</t>
@@ -540,9 +591,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -563,7 +614,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,15 +672,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,22 +693,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -629,14 +711,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -646,16 +720,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,21 +730,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,14 +744,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,7 +766,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,13 +814,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,19 +838,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,25 +868,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,19 +922,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,61 +940,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,6 +975,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -943,31 +1003,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,13 +1043,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,10 +1063,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1024,133 +1075,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1506,15 +1557,16 @@
   <sheetPr/>
   <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="16.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="11.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="22.3611111111111" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="20.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="39.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1544,17 +1596,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1565,56 +1620,56 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1622,273 +1677,352 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
+      <c r="C13" t="s">
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s">
-        <v>37</v>
+      <c r="C22" t="s">
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
-        <v>40</v>
+      <c r="C24" t="s">
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>30</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
         <v>67</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1896,53 +2030,53 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1950,114 +2084,114 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -2065,18 +2199,18 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -2084,118 +2218,118 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2203,102 +2337,102 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B78" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D79" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D80" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
@@ -2306,18 +2440,18 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D87" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -2325,76 +2459,76 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B90" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2402,88 +2536,88 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B101" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B102" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D102" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D103" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B104" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -2491,18 +2625,18 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D109" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -2510,52 +2644,52 @@
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B112" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B116" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -2563,7 +2697,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -2571,17 +2705,17 @@
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -2589,58 +2723,58 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D125" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B126" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D126" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B127" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -2648,23 +2782,23 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -2672,18 +2806,18 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B132" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D132" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -2691,7 +2825,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -2699,62 +2833,62 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B138" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B139" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -2762,28 +2896,28 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B145" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B146" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -2791,37 +2925,37 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B148" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D148" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B149" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D149" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B150" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
@@ -2829,23 +2963,23 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
       </c>
       <c r="D152" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -2853,18 +2987,18 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B155" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D155" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -2872,62 +3006,62 @@
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B158" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="B159" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B160" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B161" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B162" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -2935,7 +3069,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -2943,50 +3077,50 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B167" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B168" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D168" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B169" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="B170" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B171" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
@@ -2994,7 +3128,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
@@ -3002,88 +3136,88 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B174" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B176" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D176" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B177" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="B178" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D178" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="B179" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D179" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="B181" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D181" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="B182" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D182" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -3091,18 +3225,18 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
       </c>
       <c r="D184" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -3110,36 +3244,36 @@
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="B188" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="B189" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -3147,7 +3281,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -3155,7 +3289,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -3163,7 +3297,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
